--- a/data/trans_dic/P70D_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04188550311426559</v>
+        <v>0.04040927176699951</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09518177035506767</v>
+        <v>0.09855488667087919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07672869571713062</v>
+        <v>0.07820765351338267</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1200315763922656</v>
+        <v>0.1266256454749318</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2011672273956001</v>
+        <v>0.1932671123195625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1420792172374238</v>
+        <v>0.1416276584641314</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.05119370129854978</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07415816334592891</v>
+        <v>0.07415816334592892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06071164369660669</v>
+        <v>0.06071164369660668</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03293675680003844</v>
+        <v>0.03392724062183667</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05330089203372023</v>
+        <v>0.05214713768587674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04614479082401285</v>
+        <v>0.04690488918738475</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07556172444967063</v>
+        <v>0.07655800590041859</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1039383606589218</v>
+        <v>0.1057940927552294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07976394689367773</v>
+        <v>0.0796082128526131</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.04873506141670588</v>
+        <v>0.0487350614167059</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.03669479482398687</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03368692073793489</v>
+        <v>0.03251928740778112</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0247234846946613</v>
+        <v>0.02368127684416781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03259625309816268</v>
+        <v>0.03255176657574169</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06925088948886186</v>
+        <v>0.07095644648773608</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05199144381956991</v>
+        <v>0.05140289659103069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05549766030101652</v>
+        <v>0.05557131957496405</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01890706210615419</v>
+        <v>0.0189070621061542</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.03606705793735186</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009297870638193088</v>
+        <v>0.008685468584696585</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02227810143452871</v>
+        <v>0.0233864349517431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01793990319816658</v>
+        <v>0.01821348412338352</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03491237988841892</v>
+        <v>0.03472885638002511</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05633638879150438</v>
+        <v>0.05903336690801261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03863068737490317</v>
+        <v>0.03902242416793043</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04252941927316132</v>
+        <v>0.0425294192731613</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05765430927053673</v>
+        <v>0.0576543092705367</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.04916063214326322</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03385933031930181</v>
+        <v>0.03354936402949563</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04817393752084689</v>
+        <v>0.04713612635672203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04192469454302671</v>
+        <v>0.04190695070022223</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.054158402213745</v>
+        <v>0.05349198228878354</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06891938995872327</v>
+        <v>0.06957411647770909</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05709704461384315</v>
+        <v>0.05720206201648201</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7442</v>
+        <v>7179</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16174</v>
+        <v>16747</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26671</v>
+        <v>27185</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21326</v>
+        <v>22497</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34184</v>
+        <v>32842</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49387</v>
+        <v>49230</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16768</v>
+        <v>17272</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19207</v>
+        <v>18791</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>40120</v>
+        <v>40781</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38467</v>
+        <v>38975</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37454</v>
+        <v>38123</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69349</v>
+        <v>69214</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21008</v>
+        <v>20280</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12048</v>
+        <v>11540</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>36212</v>
+        <v>36163</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43186</v>
+        <v>44250</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25337</v>
+        <v>25050</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61655</v>
+        <v>61736</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5500</v>
+        <v>5138</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10409</v>
+        <v>10927</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18994</v>
+        <v>19284</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20651</v>
+        <v>20543</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26323</v>
+        <v>27583</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40901</v>
+        <v>41316</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>64397</v>
+        <v>63807</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>71531</v>
+        <v>69990</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>141988</v>
+        <v>141928</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103003</v>
+        <v>101736</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102335</v>
+        <v>103307</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>193373</v>
+        <v>193729</v>
       </c>
     </row>
     <row r="24">
